--- a/biology/Médecine/Pierre_Schützenberger/Pierre_Schützenberger.xlsx
+++ b/biology/Médecine/Pierre_Schützenberger/Pierre_Schützenberger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Sch%C3%BCtzenberger</t>
+          <t>Pierre_Schützenberger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Schützenberger est un psychiatre français né le 4 avril 1888 à Paris et mort le 10 octobre 1973 à Hyères (Var).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Sch%C3%BCtzenberger</t>
+          <t>Pierre_Schützenberger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine avec une spécialité en psychiatrie après la soutenance d'une thèse intitulée Le vol chez l'enfant, étude médico-légale en 1921, nommé au concours des asiles de la Seine en 1924[1], Pierre Schützenberger a effectué sa carrière dans différents hôpitaux psychiatriques de province : Pontorson (1925-1929), La Charité-sur-Loire (1930-1932), Le Mans (1933-1934), Blois (1935-1943), Moulin-Yzeure (1944–1945), Ravenel (1949-1958). 
-Il a joué un rôle dans l'expertise psychiatrique de l'affaire Papin[2],[3],[4] en 1933, aux côtés de Victor Truelle (1871–1938) et Jacques Baruk (1872–1975)[5],[6],[7]. 
-Durant l’Occupation, il est condamné et incarcéré dans les prisons militaires d’Orléans et de Blois pendant 45 jours pour avoir dissimulé du matériel sanitaire aux Allemands[1]. 
-Il était membre de diverses sociétés: la Société clinique de médecine mentale (1924), la Société de médecine du Mans (1934), la Société médico-psychologique (1934), la Société de médecine légale (1937) et la Société des sciences et lettres de Loir-et-Cher (1938). Il obtint la Croix de Guerre en 1919 et fut nommé chevalier de la Légion d'honneur en 1928[8]. 
-Il fut frappé d’indignité nationale à la Libération, entre septembre 1945 et mai 1949, son médecin-chef à Blois, le docteur Maurice Leconte, l’ayant qualifié d’être antijuif, une accusation mensongère qui n’était qu’un alibi à un règlement de comptes[1]. Charles Galpérine était le témoin vivant d'un sauvetage d’enfant juif durant l’Occupation par Schützenberger[9], qui obtint une remise de son indignité nationale en mai 1949[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine avec une spécialité en psychiatrie après la soutenance d'une thèse intitulée Le vol chez l'enfant, étude médico-légale en 1921, nommé au concours des asiles de la Seine en 1924, Pierre Schützenberger a effectué sa carrière dans différents hôpitaux psychiatriques de province : Pontorson (1925-1929), La Charité-sur-Loire (1930-1932), Le Mans (1933-1934), Blois (1935-1943), Moulin-Yzeure (1944–1945), Ravenel (1949-1958). 
+Il a joué un rôle dans l'expertise psychiatrique de l'affaire Papin en 1933, aux côtés de Victor Truelle (1871–1938) et Jacques Baruk (1872–1975). 
+Durant l’Occupation, il est condamné et incarcéré dans les prisons militaires d’Orléans et de Blois pendant 45 jours pour avoir dissimulé du matériel sanitaire aux Allemands. 
+Il était membre de diverses sociétés: la Société clinique de médecine mentale (1924), la Société de médecine du Mans (1934), la Société médico-psychologique (1934), la Société de médecine légale (1937) et la Société des sciences et lettres de Loir-et-Cher (1938). Il obtint la Croix de Guerre en 1919 et fut nommé chevalier de la Légion d'honneur en 1928. 
+Il fut frappé d’indignité nationale à la Libération, entre septembre 1945 et mai 1949, son médecin-chef à Blois, le docteur Maurice Leconte, l’ayant qualifié d’être antijuif, une accusation mensongère qui n’était qu’un alibi à un règlement de comptes. Charles Galpérine était le témoin vivant d'un sauvetage d’enfant juif durant l’Occupation par Schützenberger, qui obtint une remise de son indignité nationale en mai 1949.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Sch%C3%BCtzenberger</t>
+          <t>Pierre_Schützenberger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Schützenberger est le fils de Léon Schützenberger et le petit-fils du chimiste Paul Schützenberger, ancien directeur de l'ESPCI et professeur au Collège de France[10]. Il a eu deux fils, le mathématicien Marcel-Paul Schützenberger et le compositeur Jean-Paul Schützenberger.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Schützenberger est le fils de Léon Schützenberger et le petit-fils du chimiste Paul Schützenberger, ancien directeur de l'ESPCI et professeur au Collège de France. Il a eu deux fils, le mathématicien Marcel-Paul Schützenberger et le compositeur Jean-Paul Schützenberger.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Sch%C3%BCtzenberger</t>
+          <t>Pierre_Schützenberger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Vol chez l'enfant, étude médico-légale, Librairie littéraire et médicale Louis Arnette, Paris, 1921[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Vol chez l'enfant, étude médico-légale, Librairie littéraire et médicale Louis Arnette, Paris, 1921.
 L'Étiologie du vol chez l'enfant, Journal de médecine, Paris, 1921.
 Simulation de la tuberculose et d'occlusion intestinale par une pathomime, 1923.
 Contribution à l'étude de la folie gemellaire, psychose maniaque dépressive chez deux soeurs jumelles, avec Raoul Leroy, Annales médico-psychologiques, 1924.
@@ -603,7 +621,7 @@
 L'Instruction professionnelle du personnel secondaire des asiles d’aliénés nécessite un enseignement par degré, Clermont, Oise, Imprimerie Thiron et Cie, 1936.
 Une évasion avec la complicité d’un tiers, avec A. Gazaniol et Jean Orly, Clermont, Oise, Imprimerie Thiron et Cie, 1936.
 Deux observations de perversions sexuelles: pseudo-fétichisme, pédophilie, Annales médico-légales, Paris, Librairie J.-B. Baillière et Fils, 1937.
-Pour perpétuer la mémoire de Julien Raynier, Clermont, Oise, Imprimerie Thiron et Cie, 1937[12].
+Pour perpétuer la mémoire de Julien Raynier, Clermont, Oise, Imprimerie Thiron et Cie, 1937.
 Débilité mentale et vol, avec A. Gazaniol-Chevalier, Gazette médicale française, 1937.</t>
         </is>
       </c>
